--- a/zasady.xlsx
+++ b/zasady.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoyun\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15E8B4F-F17B-49AC-BB66-BD8AEAFBB265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC58B60-9AAE-45D9-BB22-9061E1A4FA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="3165" windowWidth="28755" windowHeight="16200"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="28755" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>warcaby polskie (międzynarodowe)</t>
   </si>
@@ -168,12 +168,24 @@
   </si>
   <si>
     <t>obowiązkowe, maksymalne</t>
+  </si>
+  <si>
+    <t>Notacja (zapis partii i pozycji): Partie i pozycje w warcabach polskich zapisuje się korzystając ze specjalnej notacji (sposobu zapisu) wynalezionej w XVIII w. przez Francuza C. Manoury. Dla celów notacji czarne pola planszy (warcabnicy) do gry w warcaby polskie numeruje się począwszy od skrajnego prawego pola od strony grającego czarnymi kamieniami liczbami od 1 do 50. Prawe skrajne pole, patrząc od strony grającego białymi, ma wówczas numer 50. Posunięcia zapisuje się podając numer pola początkowego i pola końcowego rozdzielone znakiem „-” np. 01-06. Przy zapisie pozycji podajemy numery pól, na których znajdują się kamienie, np.</t>
+  </si>
+  <si>
+    <t>Białe: 46, 47, 50(D)</t>
+  </si>
+  <si>
+    <t>Czarne: 01, 10, 15</t>
+  </si>
+  <si>
+    <t>Przy czym zwykłe kamienie oznaczone są tylko numerem pola, na którym się znajdują, zaś damki wykazujemy pisząc numer pola i dodając (D).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,18 +361,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,15 +382,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,32 +723,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="4" width="40.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -738,24 +759,24 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -766,32 +787,32 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
@@ -803,19 +824,19 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -829,7 +850,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
@@ -841,8 +862,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -851,35 +872,35 @@
       <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -899,37 +920,60 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="5:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="20" t="s">
+    <row r="22" spans="1:5" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="238.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="5:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="E23" s="18" t="s">
+      <c r="B23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="5:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="E24" s="19" t="s">
+    <row r="24" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="5:5" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="E25" s="19" t="s">
+    <row r="25" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="5:5" ht="114" x14ac:dyDescent="0.25">
-      <c r="E26" s="19" t="s">
+    <row r="26" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="5:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="E27" s="19" t="s">
+    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="14" t="s">
         <v>36</v>
       </c>
     </row>
